--- a/plots/loss.xlsx
+++ b/plots/loss.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasba/repos/experimentscripts/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD79A33-4043-1A44-9D8E-CC4AF5D93BE8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5D88B6-D44E-F049-A59A-153177566DB6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6256BB47-34B4-1B47-872B-5A593C887D54}"/>
   </bookViews>
@@ -42926,7 +42926,7 @@
   <dimension ref="A1:C1680"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/plots/loss.xlsx
+++ b/plots/loss.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasba/repos/experimentscripts/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3991E1-7CB2-5646-AEBF-A50C40A433FC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF0D701-AE76-CF4A-ACAD-83C9D1FFCED6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{6256BB47-34B4-1B47-872B-5A593C887D54}"/>
   </bookViews>
@@ -16,6 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$1680</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$1680</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$1680</definedName>
     <definedName name="loss_out" localSheetId="0">Sheet1!$A$2:$B$1680</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -49,7 +54,7 @@
     <t>Loss</t>
   </si>
   <si>
-    <t>Actual</t>
+    <t>Introduced</t>
   </si>
 </sst>
 </file>
@@ -125,7 +130,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -138,15 +143,15 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1600"/>
               <a:t>Detailed</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1600"/>
               <a:t>Loss</a:t>
             </a:r>
           </a:p>
@@ -165,7 +170,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -10329,7 +10334,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Actual</c:v>
+                  <c:v>Introduced</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -20481,7 +20486,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -20494,7 +20499,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>s</a:t>
                 </a:r>
               </a:p>
@@ -20513,7 +20518,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -20600,7 +20605,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -20613,7 +20618,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>%</a:t>
                 </a:r>
               </a:p>
@@ -20632,7 +20637,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -20712,7 +20717,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -20788,7 +20793,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -20801,7 +20806,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1600"/>
               <a:t>Loss</a:t>
             </a:r>
           </a:p>
@@ -20820,7 +20825,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -30984,7 +30989,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Actual</c:v>
+                  <c:v>Introduced</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -41136,7 +41141,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -41149,7 +41154,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>s</a:t>
                 </a:r>
               </a:p>
@@ -41168,7 +41173,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -41367,7 +41372,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -42541,13 +42546,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>615950</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -42575,15 +42580,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -42916,8 +42921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED09E36C-806B-0C48-ACB3-3D085F728134}">
   <dimension ref="A1:C1680"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
